--- a/medicine/Enfance/Zozo_la_tornade/Zozo_la_tornade.xlsx
+++ b/medicine/Enfance/Zozo_la_tornade/Zozo_la_tornade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zozo la tornade (Emil i Lönneberga) est une série de romans pour la jeunesse écrits par Astrid Lindgren entre 1963 et 1997. Elle met en scène Emil, un petit garçon farceur du village de Lönneberga dans la province du Småland. Ils ont été traduits en 44 langues[1] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zozo la tornade (Emil i Lönneberga) est une série de romans pour la jeunesse écrits par Astrid Lindgren entre 1963 et 1997. Elle met en scène Emil, un petit garçon farceur du village de Lönneberga dans la province du Småland. Ils ont été traduits en 44 langues .
 </t>
         </is>
       </c>
@@ -513,13 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cinéma
-1971 : Emil i Lönneberga
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1971 : Emil i Lönneberga
 1972 : Nya hyss av Emil i Lönneberga
 1973 : Emil et le Porcelet
-2013 : Les Aventures d'Émile à la ferme (Emil och Ida i Lönneberga), film d'animation
-Télévision
-1973 : Emil i Lönneberga, série
+2013 : Les Aventures d'Émile à la ferme (Emil och Ida i Lönneberga), film d'animation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zozo_la_tornade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zozo_la_tornade</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1973 : Emil i Lönneberga, série
 1985 : Les Farces d'Emil (Emīla nedarbi), téléfilm</t>
         </is>
       </c>
